--- a/biology/Biologie cellulaire et moléculaire/Fragment_de_Klenow/Fragment_de_Klenow.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Fragment_de_Klenow/Fragment_de_Klenow.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le fragment de Klenow est le plus gros des 2 fragments protéiques formés par l'hydrolyse de l'ADN polymérase d'Escherichia coli par une protéase (subtilisine).
 Découvert en 1970, il conserve deux des activités catalytiques de l'ADN polymérase I : la polymérase 5’→3’ et l'exonucléase 3’→5’, 
@@ -515,7 +527,9 @@
           <t>Applications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La réaction est la même que celle de l'ADN polymérase I : les conditions de milieu et la vitesse de réaction sont identiques.
 Le fragment de Klenow est utilisé pour :
@@ -551,7 +565,9 @@
           <t>Recherche</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">À cause de l'activité exonucléase 5'→3' de la polymérase I d'E.coli rendant de nombreuses manipulations impossibles, le fragment de Klenow s'est avéré très utile dans la recherche. 
 Ce fragment est utilisé lors de la réplication de l'ADN pour synthétiser le brin complémentaire à partir d’un ADN simple brin et d’une amorce. 
